--- a/議事録/H27 PM演習議事録 4月17日.xlsx
+++ b/議事録/H27 PM演習議事録 4月17日.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>場所</t>
     <rPh sb="0" eb="2">
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;議事録&gt;第2回</t>
     <rPh sb="1" eb="4">
       <t>ギジロク</t>
@@ -114,25 +110,139 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>位置づけ：立ち上げ
-流れ：githubについての説明を受けた。</t>
+    <t>議事の要点</t>
     <rPh sb="0" eb="2">
-      <t>イチ</t>
+      <t>ギジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定事項</t>
+    <rPh sb="0" eb="4">
+      <t>ケッテイジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プロジェクトメンバ
+佐藤　優至（PM)
+戸張　琢斗
+加藤　聖也
+・内容
+13：10～
+githubについての説明を受け、実演した。
+16：20
+16：30～
+PJ憲章の作成
+要件定義書の作成
+22：00</t>
+    <rPh sb="57" eb="59">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジツエン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="91" eb="96">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>githubの使い方を覚えた。
+PJ憲章の作成を行った。
+要件定義書の作成を行った</t>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="34">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回は、4月24日の13：10に1号館堀内研究室にメンバ全員で集合する
+githubのアカウントを作成し、組織を作る
+PJ憲章及び要件定義書の修正を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ジカイ</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウ</t>
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゴウカン</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>ホリウチケンキュウシツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュウゴウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="65" eb="70">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -325,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,33 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,6 +498,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,20 +842,20 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:J30"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>7</v>
+      <c r="A1" s="7" t="s">
+        <v>6</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -765,21 +887,21 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="8">
         <v>42111</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
@@ -796,166 +918,166 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>9</v>
+      <c r="A6" s="12" t="s">
+        <v>10</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -968,160 +1090,166 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
+      <c r="A20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="A31" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -1136,7 +1264,9 @@
       <c r="J33" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A20:J30"/>
     <mergeCell ref="A1:B1"/>
